--- a/outputs/2_output.xlsx
+++ b/outputs/2_output.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -869,28 +869,28 @@
     <row r="8">
       <c r="A8" s="29" t="inlineStr">
         <is>
-          <t>@$*</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>,pp[</t>
+          <t>V-001</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>MLK_PMT_10101_-_V-001</t>
+          <t>MLK_PMT_10103_-_V-003</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>Shell &amp; Dished End</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DIESEL FUEL</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>A/SA 516</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>Gr.70</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -915,45 +915,34 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>65 °C</t>
+          <t>200 °C</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1,000 kPag</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B9" s="29" t="inlineStr">
-        <is>
-          <t>V-001</t>
-        </is>
-      </c>
-      <c r="C9" s="29" t="inlineStr">
-        <is>
-          <t>MLK_PMT_10101_-_V-001</t>
-        </is>
-      </c>
-      <c r="D9" s="29" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Top Head</t>
+          <t>Flange, Manhole Flange and Cover</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DIESEL FUEL</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -963,12 +952,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SA-516</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>70</t>
+          <t>A/SA 105</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -978,34 +962,34 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>65 °C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14 BAR (g)</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bottom Head</t>
+          <t>Pipe</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>DIESEL FUEL</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1015,12 +999,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>A/SA 106</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>Gr.B</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1030,34 +1014,34 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>65 °C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14 BAR (g)</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Support Leg</t>
+          <t>Socket</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>DIESEL FUEL</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1067,12 +1051,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ISMC 150</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>IS 2062 GR. E250</t>
+          <t>A/SA 105</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1082,34 +1061,34 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>65 °C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14 BAR (g)</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Base Plate</t>
+          <t>Reinforced Plate</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>DIESEL FUEL</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1119,12 +1098,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>IS 2062</t>
+          <t>A/SA 516</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>GR. E250</t>
+          <t>Gr.70</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1134,44 +1113,44 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>65 °C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14 BAR (g)</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Name Plate</t>
+          <t>Legs</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>DIESEL FUEL</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Structural Steel</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SS 304</t>
+          <t>S275JR</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1181,49 +1160,49 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>65 °C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14 BAR (g)</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>@$%%^fg</t>
+          <t>Bolt &amp; Nut (Pressure Retaining)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>DIESEL FUEL</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel Bolting</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>SA193 / SA194</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>B7 / 2H</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1233,49 +1212,44 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>65 °C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>14 BAR (g)</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bolt &amp; Nut</t>
+          <t>Bolt &amp; Nut (External Fittings)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>DIESEL FUEL</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SElect all</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>IS 1364</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>GR. 8.8</t>
+          <t>JIS G3507</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1285,1047 +1259,44 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>65 °C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14 BAR (g)</t>
+          <t>1,000 kPag</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Pad (N1-N4)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>DIESEL FUEL</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SA-516</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>65 °C</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>14 BAR (g)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Pad (N5-N6)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>DIESEL FUEL</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SA-516</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>65 °C</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>14 BAR (g)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Pad (N7-N8)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>DIESEL FUEL</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>SA-516</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>65 °C</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>14 BAR (g)</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Pad (N9-N11)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>DIESEL FUEL</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>SA-516</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>65 °C</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>14 BAR (g)</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="29" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B20" s="29" t="inlineStr">
-        <is>
-          <t>V-002</t>
-        </is>
-      </c>
-      <c r="C20" s="29" t="inlineStr">
-        <is>
-          <t>MLK_PMT_10102_-_V-002</t>
-        </is>
-      </c>
-      <c r="D20" s="29" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>PLATE 157X600X5mm SHELL TO BE ROLLED</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>SA-240M</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>316L</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>DISH HEAD 81mm TO BE FORMED T.0 2:1 TYPE</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SA-240M</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>316L</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SEAMLESS PIPE DN50 X 87 SCH 40S</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>SA-312M TP</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>316L</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SEAMLESS PIPE DN25 X 100 SCH 40S</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>SA-312M TP</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>316L</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SEAMLESS PIPE DN50 X 112 SCH 40S</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>SA-312M TP</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>316L</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>SEAMLESS PIPE DN50 X 112 SCH 40S</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>SA-312M TP</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>316L</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>SEAMLESS PIPE DN50 X 112 SCH 40S</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>SA-312M TP</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>316L</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>FLANGE DN50 CLASS 150 WNRF SCH 40S</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>SA-182M</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>F316L</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>FLANGE DN25 CLASS 150 WNRF SCH 40S</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>SA-182M</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>F316L</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>FLANGE DN50 CLASS 150 WNRF SCH 40S</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>SA-182M</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>F316L</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>BASE PLATE 150 X 150 X 5THK</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>SA-240M</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Gr.304L</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>LIFTING LUG PLATE 190 X 80 X 6THK</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>SA-240M</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Gr.304L</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>DOUBLER PLATE 120 X 150 X 12.7THK</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>SA-240M</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Gr.304L</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>EQUAL ANGLE BAR 3" X 3" X 1/4" THK</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>SA-240M</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Gr.304L</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>EARTHING LUG</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>DMSO</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>SA-240M</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Gr.304L</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
+          <t>1,000 kPag</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="19">
+    <mergeCell ref="D8:D15"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H5:J6"/>
-    <mergeCell ref="C20:C34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="C9:C19"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="D9:D19"/>
+    <mergeCell ref="B8:B15"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="C8:C15"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B20:B34"/>
-    <mergeCell ref="D20:D34"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>
   </mergeCells>

--- a/outputs/2_output.xlsx
+++ b/outputs/2_output.xlsx
@@ -890,7 +890,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -915,22 +915,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>200 °C</t>
+          <t>200°C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>185 °C</t>
+          <t>185°C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>200 °C</t>
+          <t>200°C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>185 °C</t>
+          <t>185°C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1014,22 +1014,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>200 °C</t>
+          <t>200°C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>185 °C</t>
+          <t>185°C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1061,22 +1061,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>200 °C</t>
+          <t>200°C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>185 °C</t>
+          <t>185°C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1113,22 +1113,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>200 °C</t>
+          <t>200°C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>185 °C</t>
+          <t>185°C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1160,34 +1160,34 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>200 °C</t>
+          <t>200°C</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>185 °C</t>
+          <t>185°C</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bolt &amp; Nut (Pressure Retaining)</t>
+          <t>Pressure Retaining Bolt &amp; Nut</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1212,34 +1212,34 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>200 °C</t>
+          <t>200°C</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>185 °C</t>
+          <t>185°C</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bolt &amp; Nut (External Fittings)</t>
+          <t>External Fittings</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1259,22 +1259,22 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>200 °C</t>
+          <t>200°C</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>185 °C</t>
+          <t>185°C</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>

--- a/outputs/2_output.xlsx
+++ b/outputs/2_output.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>11</col>
@@ -368,21 +368,21 @@
         <cNvPicPr preferRelativeResize="0"/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7513320" y="137160"/>
           <a:ext cx="2095500" cy="523875"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -882,7 +882,11 @@
           <t>MLK_PMT_10103_-_V-003</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr"/>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>Expansion Tank</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Shell &amp; Dished End</t>
@@ -890,7 +894,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -905,7 +909,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Gr.70</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -915,7 +919,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>200°C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -925,7 +929,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>185°C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -942,7 +946,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -962,7 +966,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>200°C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -972,7 +976,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>185°C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -989,7 +993,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1004,7 +1008,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Gr.B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1014,7 +1018,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>200°C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1024,7 +1028,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>185°C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1041,7 +1045,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1061,7 +1065,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>200°C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1071,7 +1075,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>185°C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1088,7 +1092,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1103,7 +1107,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Gr.70</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1113,7 +1117,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>200°C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1123,7 +1127,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>185°C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1140,7 +1144,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1150,7 +1154,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>S275JR</t>
+          <t>S275</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>JR</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1160,7 +1169,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>200°C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1170,7 +1179,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>185°C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1182,12 +1191,12 @@
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pressure Retaining Bolt &amp; Nut</t>
+          <t>Bolt &amp; Nut (Pressure Retaining)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1212,7 +1221,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>200°C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1222,7 +1231,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>185°C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1234,12 +1243,12 @@
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>External Fittings</t>
+          <t>Bolt &amp; Nut (External Fittings)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1259,7 +1268,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>200°C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1269,7 +1278,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>185°C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
